--- a/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1123">
   <si>
     <t>Serie</t>
   </si>
@@ -3380,6 +3380,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3737,7 +3740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1119"/>
+  <dimension ref="A1:D1120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14951,6 +14954,20 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="1120" spans="1:4">
+      <c r="A1120" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1120">
+        <v>4.5</v>
+      </c>
+      <c r="C1120">
+        <v>3.6</v>
+      </c>
+      <c r="D1120">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
   <si>
     <t>Serie</t>
   </si>
@@ -3383,6 +3383,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1120"/>
+  <dimension ref="A1:D1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14968,6 +14971,20 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="1121" spans="1:4">
+      <c r="A1121" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1121">
+        <v>4.8</v>
+      </c>
+      <c r="C1121">
+        <v>3.8</v>
+      </c>
+      <c r="D1121">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1125">
   <si>
     <t>Serie</t>
   </si>
@@ -3386,6 +3386,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1121"/>
+  <dimension ref="A1:D1122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14985,6 +14988,20 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="1122" spans="1:4">
+      <c r="A1122" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1122">
+        <v>5.3</v>
+      </c>
+      <c r="C1122">
+        <v>4.4</v>
+      </c>
+      <c r="D1122">
+        <v>4.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
+++ b/2/2/Variación anual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1126">
   <si>
     <t>Serie</t>
   </si>
@@ -3389,6 +3389,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +3749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1122"/>
+  <dimension ref="A1:D1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15002,6 +15005,20 @@
         <v>4.2</v>
       </c>
     </row>
+    <row r="1123" spans="1:4">
+      <c r="A1123" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1123">
+        <v>6</v>
+      </c>
+      <c r="C1123">
+        <v>5.1</v>
+      </c>
+      <c r="D1123">
+        <v>3.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
